--- a/02_Document/計画/各チームのタスク一覧.xlsx
+++ b/02_Document/計画/各チームのタスク一覧.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Other\GroupWork\DSensor\DSensor\02_Document\計画\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="14370"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="70">
   <si>
     <t>設計</t>
     <rPh sb="0" eb="2">
@@ -317,10 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>湿度データ取得シーケンス</t>
     <rPh sb="0" eb="2">
       <t>シツド</t>
@@ -341,10 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サーバ選定</t>
     <rPh sb="3" eb="5">
       <t>センテイ</t>
@@ -366,10 +363,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB送受信部分</t>
     <rPh sb="2" eb="5">
       <t>ソウジュシン</t>
@@ -380,22 +373,171 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>梶田</t>
+    <rPh sb="0" eb="2">
+      <t>カジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梶田</t>
+    <rPh sb="0" eb="2">
+      <t>カジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="3">
+      <t>タイオウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松里</t>
+    <rPh sb="0" eb="2">
+      <t>マツザト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補PC確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補PC確認後</t>
+    <rPh sb="0" eb="2">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>OSインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂内</t>
+    <rPh sb="0" eb="2">
+      <t>サカウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武田</t>
+    <rPh sb="0" eb="2">
+      <t>タケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定(星？)</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野村</t>
+    <rPh sb="0" eb="2">
+      <t>ノムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和知,中村</t>
+    <rPh sb="0" eb="2">
+      <t>ワチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカムラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,7 +788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +802,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -686,15 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -705,12 +859,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -752,7 +909,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,7 +944,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,41 +1155,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1044,13 +1201,15 @@
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1059,39 +1218,53 @@
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="8">
+        <v>42771</v>
+      </c>
+      <c r="G3" s="10">
+        <v>42771</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <v>42785</v>
+      </c>
+      <c r="G4" s="10">
+        <v>42785</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1100,93 +1273,127 @@
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42785</v>
+      </c>
+      <c r="G6" s="10">
+        <v>42785</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42785</v>
+      </c>
+      <c r="G7" s="10">
+        <v>42785</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42785</v>
+      </c>
+      <c r="G8" s="10">
+        <v>42785</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42820</v>
+      </c>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42820</v>
+      </c>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42820</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8">
+        <v>42820</v>
+      </c>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1195,80 +1402,108 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8">
+        <v>42785</v>
+      </c>
+      <c r="G13" s="10">
+        <v>42785</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8">
+        <v>42785</v>
+      </c>
+      <c r="G14" s="10">
+        <v>42785</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="8">
+        <v>42785</v>
+      </c>
+      <c r="G15" s="10">
+        <v>42785</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="8">
+        <v>42785</v>
+      </c>
+      <c r="G16" s="10">
+        <v>42785</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1277,35 +1512,41 @@
       <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1331,34 +1572,36 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1370,144 +1613,166 @@
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="8">
+        <v>42816</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
@@ -1523,41 +1788,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1569,238 +1836,328 @@
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="8">
+        <v>42815</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
-        <v>41</v>
+      <c r="A3" s="13"/>
+      <c r="B3" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42810</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42810</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42812</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42816</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42812</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="8">
+        <v>42815</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="8">
+        <v>42818</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="8">
+        <v>42818</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="8">
+        <v>42818</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="8">
+        <v>42816</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="8">
+        <v>42818</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="9">
+        <v>42821</v>
+      </c>
+      <c r="G19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B3:B10"/>
-    <mergeCell ref="A11:A18"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02_Document/計画/各チームのタスク一覧.xlsx
+++ b/02_Document/計画/各チームのタスク一覧.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Other\GroupWork\DSensor\DSensor\02_Document\計画\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="14370"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="センサーチーム" sheetId="1" r:id="rId1"/>
@@ -537,7 +532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +560,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +849,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,7 +880,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -909,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,7 +957,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1212,38 +1225,38 @@
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="22">
         <v>42771</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="23">
         <v>42771</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="22">
         <v>42785</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="23">
         <v>42785</v>
       </c>
     </row>
@@ -1267,57 +1280,57 @@
       <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="22">
         <v>42785</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="23">
         <v>42785</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="22">
         <v>42785</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="23">
         <v>42785</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="22">
         <v>42785</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="23">
         <v>42785</v>
       </c>
     </row>
@@ -1396,76 +1409,76 @@
       <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="22">
         <v>42785</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="23">
         <v>42785</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="22">
         <v>42785</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="23">
         <v>42785</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="22">
         <v>42785</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="23">
         <v>42785</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="22">
         <v>42785</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="23">
         <v>42785</v>
       </c>
     </row>
@@ -1621,39 +1634,39 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="22">
         <v>42816</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
@@ -1849,74 +1862,74 @@
       <c r="B3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="22">
         <v>42810</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>

--- a/02_Document/計画/各チームのタスク一覧.xlsx
+++ b/02_Document/計画/各チームのタスク一覧.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
   <si>
     <t>設計</t>
     <rPh sb="0" eb="2">
@@ -369,13 +369,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>梶田</t>
-    <rPh sb="0" eb="2">
-      <t>カジタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1202,9 +1195,11 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="F2" s="8">
+        <v>42891</v>
+      </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1219,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="8">
         <v>42771</v>
@@ -1238,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="8">
         <v>42785</v>
@@ -1257,9 +1252,11 @@
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42891</v>
+      </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1274,7 +1271,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8">
         <v>42785</v>
@@ -1293,7 +1290,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8">
         <v>42785</v>
@@ -1312,7 +1309,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="8">
         <v>42785</v>
@@ -1331,10 +1328,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="8">
-        <v>42820</v>
+        <v>42887</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -1348,10 +1345,10 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="8">
-        <v>42820</v>
+        <v>42887</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -1365,10 +1362,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="8">
-        <v>42820</v>
+        <v>42887</v>
       </c>
       <c r="G11" s="10"/>
     </row>
@@ -1382,10 +1379,10 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8">
-        <v>42820</v>
+        <v>42887</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -1403,7 +1400,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="8">
         <v>42785</v>
@@ -1422,7 +1419,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="8">
         <v>42785</v>
@@ -1441,7 +1438,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="8">
         <v>42785</v>
@@ -1460,7 +1457,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="8">
         <v>42785</v>
@@ -1481,9 +1478,11 @@
         <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="F17" s="8">
+        <v>42894</v>
+      </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1496,9 +1495,11 @@
         <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="F18" s="8">
+        <v>42894</v>
+      </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1513,9 +1514,11 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="F19" s="8">
+        <v>42895</v>
+      </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1528,9 +1531,11 @@
         <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="F20" s="8">
+        <v>42902</v>
+      </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1543,9 +1548,11 @@
         <v>32</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F21" s="9">
+        <v>42902</v>
+      </c>
       <c r="G21" s="11"/>
     </row>
   </sheetData>
@@ -1588,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>34</v>
@@ -1614,7 +1621,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
@@ -1625,13 +1632,13 @@
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
@@ -1639,16 +1646,16 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F4" s="8">
         <v>42816</v>
@@ -1661,13 +1668,13 @@
         <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
@@ -1678,13 +1685,13 @@
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
@@ -1697,13 +1704,13 @@
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
@@ -1711,16 +1718,16 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
@@ -1731,13 +1738,13 @@
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
@@ -1748,13 +1755,13 @@
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
@@ -1765,13 +1772,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
@@ -1811,7 +1818,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>34</v>
@@ -1837,7 +1844,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="8">
         <v>42815</v>
@@ -1847,19 +1854,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1873,13 +1880,13 @@
         <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1892,13 +1899,13 @@
         <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1908,10 +1915,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F6" s="8">
         <v>42810</v>
@@ -1925,10 +1932,10 @@
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F7" s="8">
         <v>42810</v>
@@ -1945,7 +1952,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8">
         <v>42812</v>
@@ -1962,7 +1969,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="8">
         <v>42816</v>
@@ -1979,7 +1986,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="8">
         <v>42812</v>
@@ -2000,10 +2007,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -2011,16 +2018,16 @@
       <c r="A12" s="13"/>
       <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -2034,7 +2041,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="8">
         <v>42815</v>
@@ -2047,13 +2054,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="8">
         <v>42818</v>
@@ -2070,7 +2077,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8">
         <v>42818</v>
@@ -2081,13 +2088,13 @@
       <c r="A16" s="13"/>
       <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="8">
         <v>42818</v>
@@ -2106,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="8">
         <v>42816</v>
@@ -2123,7 +2130,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="8">
         <v>42818</v>
@@ -2140,7 +2147,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="9">
         <v>42821</v>
